--- a/data-raw/unhcr_2023/iati_location.xlsx
+++ b/data-raw/unhcr_2023/iati_location.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>location_reach</t>
+          <t>location_reach_code</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
